--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_3_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_3_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>758964.9261764761</v>
+        <v>757077.3446600739</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>379.1635783963843</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>286.3986294893086</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -823,10 +823,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>107.0688699336409</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>33.74986604072847</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>169.9875950139627</v>
+        <v>251.8021835353217</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1063,16 +1063,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>123.4514883688806</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>128.6652719985049</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>216.4445740591063</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1148,7 +1148,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>163.8950372953901</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,16 +1300,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>70.5715404991124</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>171.7498680634315</v>
       </c>
     </row>
     <row r="11">
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>66.9044597735918</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1588,10 +1588,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>179.7626716213389</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>34.56420282848773</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>215.9495548965043</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1895,7 +1895,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>41.49129987948847</v>
       </c>
       <c r="T19" t="n">
-        <v>197.7655772489798</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>250.0324175065484</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>207.1789546388882</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>115.5269768002174</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>3.613164522120715</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>76.48708851141392</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -2767,16 +2767,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>143.3158222056517</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533804</v>
+        <v>124.6287235533805</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700709</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965541</v>
+        <v>93.41221638965555</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801223</v>
+        <v>91.23070601801237</v>
       </c>
       <c r="F31" t="n">
-        <v>90.2177913943743</v>
+        <v>90.21779139437444</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>111.2903118348208</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897918</v>
+        <v>93.71057173897933</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571517</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>33.06786074634812</v>
+        <v>54.76109577523597</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550463</v>
+        <v>142.7175533550464</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298323</v>
+        <v>166.3443044298324</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700204</v>
+        <v>231.0340957700206</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952711</v>
+        <v>0.7489855927032281</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>231.3197417080342</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604802</v>
+        <v>170.5063987604804</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>163.381396723538</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692848</v>
+        <v>78.3020725169287</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H34" t="n">
         <v>80.78193823789547</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
         <v>42.28735533463134</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
         <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463135</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G46" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1668.489050745291</v>
+        <v>854.9003034538789</v>
       </c>
       <c r="C2" t="n">
-        <v>1299.526533804879</v>
+        <v>854.9003034538789</v>
       </c>
       <c r="D2" t="n">
-        <v>941.2608351981287</v>
+        <v>854.9003034538789</v>
       </c>
       <c r="E2" t="n">
-        <v>555.4725825998845</v>
+        <v>854.9003034538789</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4334,7 +4334,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V2" t="n">
-        <v>2407.857546079527</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W2" t="n">
-        <v>2055.088890809413</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="X2" t="n">
-        <v>2055.088890809413</v>
+        <v>1245.039635429691</v>
       </c>
       <c r="Y2" t="n">
-        <v>2055.088890809413</v>
+        <v>854.9003034538789</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>477.919485916526</v>
+        <v>404.8646000824888</v>
       </c>
       <c r="C4" t="n">
-        <v>308.9833029886191</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="D4" t="n">
-        <v>308.9833029886191</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600561</v>
+        <v>404.8646000824888</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600561</v>
+        <v>404.8646000824888</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600561</v>
+        <v>404.8646000824888</v>
       </c>
       <c r="Y4" t="n">
-        <v>477.919485916526</v>
+        <v>404.8646000824888</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1679.782215419422</v>
+        <v>1606.946621408918</v>
       </c>
       <c r="C5" t="n">
-        <v>1310.819698479011</v>
+        <v>1237.984104468507</v>
       </c>
       <c r="D5" t="n">
-        <v>952.5539998722602</v>
+        <v>879.7184058617563</v>
       </c>
       <c r="E5" t="n">
-        <v>566.7657472740159</v>
+        <v>879.7184058617563</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2443.387305656314</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W5" t="n">
-        <v>2443.387305656314</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X5" t="n">
-        <v>2069.921547395234</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y5" t="n">
-        <v>1679.782215419422</v>
+        <v>1993.54646147304</v>
       </c>
     </row>
     <row r="6">
@@ -4656,13 +4656,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>370.8558756644252</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="C7" t="n">
-        <v>370.8558756644252</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="D7" t="n">
-        <v>370.8558756644252</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>325.5314024181542</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>178.6414549202439</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>178.6414549202439</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>178.6414549202439</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>598.1640629958234</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>598.1640629958234</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>370.8558756644252</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>370.8558756644252</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>370.8558756644252</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W7" t="n">
-        <v>370.8558756644252</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X7" t="n">
-        <v>370.8558756644252</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="Y7" t="n">
-        <v>370.8558756644252</v>
+        <v>473.4444960005474</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1640.777806202926</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="C8" t="n">
-        <v>1640.777806202926</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="V8" t="n">
-        <v>1993.54646147304</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="W8" t="n">
-        <v>1640.777806202926</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="X8" t="n">
-        <v>1640.777806202926</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="Y8" t="n">
-        <v>1640.777806202926</v>
+        <v>2476.569858826099</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4881,43 +4881,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>579.9823256406182</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C10" t="n">
-        <v>579.9823256406182</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
-        <v>429.8656862282825</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>429.8656862282825</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>282.9757387303721</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>282.9757387303721</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>125.2273661629022</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>579.9823256406182</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="11">
@@ -5027,10 +5027,10 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
@@ -5039,10 +5039,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5051,7 +5051,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>190.6805289025653</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K12" t="n">
-        <v>339.7502131046251</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L12" t="n">
-        <v>953.6472828615138</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M12" t="n">
-        <v>1722.015429253975</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>164.7973538578533</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="C13" t="n">
-        <v>164.7973538578533</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="D13" t="n">
-        <v>164.7973538578533</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="E13" t="n">
-        <v>164.7973538578533</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F13" t="n">
-        <v>164.7973538578533</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G13" t="n">
-        <v>164.7973538578533</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>675.007103038344</v>
+        <v>986.0022165609666</v>
       </c>
       <c r="V13" t="n">
-        <v>675.007103038344</v>
+        <v>986.0022165609666</v>
       </c>
       <c r="W13" t="n">
-        <v>385.5899330013834</v>
+        <v>804.4237603777962</v>
       </c>
       <c r="X13" t="n">
-        <v>385.5899330013834</v>
+        <v>576.4342094797788</v>
       </c>
       <c r="Y13" t="n">
-        <v>164.7973538578533</v>
+        <v>355.6416303362487</v>
       </c>
     </row>
     <row r="14">
@@ -5261,25 +5261,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5294,7 +5294,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5361,16 +5361,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>247.3337308726216</v>
+        <v>247.6350999123428</v>
       </c>
       <c r="C16" t="n">
-        <v>247.3337308726216</v>
+        <v>247.6350999123428</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123428</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123428</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123428</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123428</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1080.865396941632</v>
       </c>
       <c r="U16" t="n">
-        <v>1275.130855347408</v>
+        <v>791.7367581551902</v>
       </c>
       <c r="V16" t="n">
-        <v>1020.446367141521</v>
+        <v>537.0522699493033</v>
       </c>
       <c r="W16" t="n">
-        <v>731.0291971045607</v>
+        <v>247.6350999123428</v>
       </c>
       <c r="X16" t="n">
-        <v>503.0396462065434</v>
+        <v>247.6350999123428</v>
       </c>
       <c r="Y16" t="n">
-        <v>282.2470670630132</v>
+        <v>247.6350999123428</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5513,10 +5513,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>261.8048459311032</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>410.874530133163</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>1024.771599890052</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>245.1301850426789</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="C19" t="n">
-        <v>245.1301850426789</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="D19" t="n">
-        <v>245.1301850426789</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028581</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5674,49 +5674,49 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688069</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1457.005866639228</v>
       </c>
       <c r="T19" t="n">
-        <v>1299.153061215498</v>
+        <v>1457.005866639228</v>
       </c>
       <c r="U19" t="n">
-        <v>1010.024422429056</v>
+        <v>1167.877227852786</v>
       </c>
       <c r="V19" t="n">
-        <v>755.3399342231696</v>
+        <v>913.1927396468989</v>
       </c>
       <c r="W19" t="n">
-        <v>465.9227641862091</v>
+        <v>913.1927396468989</v>
       </c>
       <c r="X19" t="n">
-        <v>465.9227641862091</v>
+        <v>685.2031887488815</v>
       </c>
       <c r="Y19" t="n">
-        <v>245.1301850426789</v>
+        <v>685.2031887488815</v>
       </c>
     </row>
     <row r="20">
@@ -5735,43 +5735,43 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5847,10 +5847,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>244.1070389581961</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C22" t="n">
-        <v>244.1070389581961</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D22" t="n">
-        <v>244.1070389581961</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581961</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
         <v>97.21709146028584</v>
@@ -5914,16 +5914,16 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765188</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V22" t="n">
-        <v>533.5242089951568</v>
+        <v>955.1031435655736</v>
       </c>
       <c r="W22" t="n">
-        <v>244.1070389581961</v>
+        <v>955.1031435655736</v>
       </c>
       <c r="X22" t="n">
-        <v>244.1070389581961</v>
+        <v>955.1031435655736</v>
       </c>
       <c r="Y22" t="n">
-        <v>244.1070389581961</v>
+        <v>745.8314722131613</v>
       </c>
     </row>
     <row r="23">
@@ -5966,19 +5966,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5987,13 +5987,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6005,28 +6005,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6054,40 +6054,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>213.9110074201014</v>
+        <v>507.0827848727881</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>507.0827848727881</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>507.0827848727881</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>359.169691290395</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>359.169691290395</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>359.169691290395</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471195</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6166,31 +6166,31 @@
         <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1495.266609424448</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1495.266609424448</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1495.266609424448</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609662</v>
+        <v>1206.137970638006</v>
       </c>
       <c r="V25" t="n">
-        <v>731.3177283550793</v>
+        <v>1206.137970638006</v>
       </c>
       <c r="W25" t="n">
-        <v>441.9005583181187</v>
+        <v>916.7208006010451</v>
       </c>
       <c r="X25" t="n">
-        <v>213.9110074201014</v>
+        <v>688.7312497030277</v>
       </c>
       <c r="Y25" t="n">
-        <v>213.9110074201014</v>
+        <v>688.7312497030277</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6212,10 +6212,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6227,25 +6227,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6291,40 +6291,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>493.0701069575865</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>493.0701069575865</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>493.0701069575865</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>493.0701069575865</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>493.0701069575865</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>324.8947852774071</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>174.4767768253504</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.210845262961</v>
+        <v>964.1357418247869</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765189</v>
+        <v>964.1357418247869</v>
       </c>
       <c r="V28" t="n">
-        <v>531.397718270632</v>
+        <v>964.1357418247869</v>
       </c>
       <c r="W28" t="n">
-        <v>241.9805482336714</v>
+        <v>674.7185717878262</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>674.7185717878262</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>674.7185717878262</v>
       </c>
     </row>
     <row r="29">
@@ -6455,7 +6455,7 @@
         <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6476,13 +6476,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6528,40 +6528,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,43 +6595,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>695.1010933248442</v>
+        <v>637.6995017749906</v>
       </c>
       <c r="C31" t="n">
-        <v>581.9257756783079</v>
+        <v>637.6995017749906</v>
       </c>
       <c r="D31" t="n">
-        <v>487.5700015473428</v>
+        <v>543.3437276440254</v>
       </c>
       <c r="E31" t="n">
-        <v>395.4177732463203</v>
+        <v>451.1914993430028</v>
       </c>
       <c r="F31" t="n">
-        <v>304.2886910297806</v>
+        <v>360.0624171264629</v>
       </c>
       <c r="G31" t="n">
-        <v>191.8742346309719</v>
+        <v>247.647960727654</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>152.9908175569678</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864671</v>
+        <v>164.251007986467</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933499</v>
+        <v>369.0876362933497</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667506</v>
+        <v>671.4509053667502</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962048</v>
+        <v>997.6688721962046</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286023</v>
       </c>
       <c r="O31" t="n">
         <v>1611.390407353692</v>
@@ -6640,31 +6640,31 @@
         <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056073</v>
       </c>
       <c r="R31" t="n">
-        <v>1902.724183514307</v>
+        <v>1880.811824899269</v>
       </c>
       <c r="S31" t="n">
-        <v>1758.56503871123</v>
+        <v>1736.652680096192</v>
       </c>
       <c r="T31" t="n">
-        <v>1590.540488782106</v>
+        <v>1568.628130167068</v>
       </c>
       <c r="U31" t="n">
-        <v>1357.172715277036</v>
+        <v>1335.260356661997</v>
       </c>
       <c r="V31" t="n">
-        <v>1158.249092352519</v>
+        <v>1334.503805558256</v>
       </c>
       <c r="W31" t="n">
-        <v>1158.249092352519</v>
+        <v>1100.847500802666</v>
       </c>
       <c r="X31" t="n">
-        <v>986.0204067358727</v>
+        <v>928.6188151860193</v>
       </c>
       <c r="Y31" t="n">
-        <v>820.9886928737133</v>
+        <v>763.5871013238598</v>
       </c>
     </row>
     <row r="32">
@@ -6677,49 +6677,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823778</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6765,40 +6765,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395484</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E34" t="n">
         <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6853,16 +6853,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,31 +6877,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="35">
@@ -6926,28 +6926,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643324</v>
@@ -6956,10 +6956,10 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -7002,40 +7002,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103128</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7096,10 +7096,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7108,16 +7108,16 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P37" t="n">
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7126,7 +7126,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
         <v>1304.027639859416</v>
@@ -7135,7 +7135,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
         <v>772.2886129010315</v>
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,28 +7163,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7196,28 +7196,28 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7239,40 +7239,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1595.645765494012</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1925.508393158045</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2205.048458376742</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2410.070939158951</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,10 +7306,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
         <v>478.0475988506726</v>
@@ -7321,7 +7321,7 @@
         <v>320.8847398504513</v>
       </c>
       <c r="G40" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7333,10 +7333,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7348,10 +7348,10 @@
         <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7388,10 +7388,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7400,28 +7400,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7433,7 +7433,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7476,40 +7476,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G43" t="n">
         <v>221.5295092103129</v>
@@ -7564,13 +7564,13 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649693</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="44">
@@ -7625,49 +7625,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7713,40 +7713,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,13 +7780,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
         <v>398.9545963083206</v>
@@ -7801,16 +7801,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747169</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,16 +8766,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>52.49733361305233</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,10 +8784,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445217</v>
@@ -9009,7 +9009,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>124.340078086323</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,13 +9255,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10434,7 +10434,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>288.4091825776743</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10604,7 +10604,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>212.314990659903</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10671,7 +10671,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>277.6717966208068</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,7 +10905,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>127.6461250100642</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>82.00936859394433</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>106.7603267152521</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>145.2677773534496</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23668,7 +23668,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23701,13 +23701,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>5.598006161884907</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23899,7 +23899,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23908,7 +23908,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23938,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>156.4295101041146</v>
       </c>
       <c r="T19" t="n">
-        <v>23.7819838094095</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24175,25 +24175,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>2.105225817279631</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>11.40569871320659</v>
       </c>
     </row>
     <row r="23">
@@ -24361,16 +24361,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>51.71984429841048</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>106.3511878816721</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>33.93215695285802</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,16 +24655,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>82.39383318338548</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.043564470071</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571503</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.69323502888772</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,10 +24895,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>196.185401102568</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>389994.8406855344</v>
+        <v>389994.8406855345</v>
       </c>
       <c r="C2" t="n">
         <v>389994.8406855345</v>
       </c>
       <c r="D2" t="n">
-        <v>389994.8406855346</v>
+        <v>389994.8406855345</v>
       </c>
       <c r="E2" t="n">
+        <v>371477.6067508235</v>
+      </c>
+      <c r="F2" t="n">
+        <v>371477.6067508237</v>
+      </c>
+      <c r="G2" t="n">
         <v>371477.6067508236</v>
-      </c>
-      <c r="F2" t="n">
-        <v>371477.6067508235</v>
-      </c>
-      <c r="G2" t="n">
-        <v>371477.6067508237</v>
       </c>
       <c r="H2" t="n">
         <v>371477.6067508237</v>
       </c>
       <c r="I2" t="n">
-        <v>371477.6067508237</v>
+        <v>371477.6067508236</v>
       </c>
       <c r="J2" t="n">
         <v>371477.6067508236</v>
@@ -26347,10 +26347,10 @@
         <v>389994.8406855348</v>
       </c>
       <c r="N2" t="n">
-        <v>389994.8406855348</v>
+        <v>389994.8406855349</v>
       </c>
       <c r="O2" t="n">
-        <v>389994.8406855348</v>
+        <v>389994.8406855346</v>
       </c>
       <c r="P2" t="n">
         <v>389994.8406855348</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26384,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.42310613632435e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284556</v>
+        <v>44162.60530284543</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086696</v>
+        <v>10342.90680086706</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284559</v>
+        <v>44162.60530284543</v>
       </c>
     </row>
     <row r="4">
@@ -26430,34 +26430,34 @@
         <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
+        <v>22174.60758687072</v>
+      </c>
+      <c r="H4" t="n">
+        <v>22174.60758687073</v>
+      </c>
+      <c r="I4" t="n">
         <v>22174.6075868707</v>
       </c>
-      <c r="H4" t="n">
-        <v>22174.60758687071</v>
-      </c>
-      <c r="I4" t="n">
-        <v>22174.60758687071</v>
-      </c>
       <c r="J4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.23010106721</v>
+        <v>40339.23010106715</v>
       </c>
       <c r="L4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.39482819117</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819117</v>
       </c>
       <c r="N4" t="n">
-        <v>44593.39482819114</v>
+        <v>44593.39482819117</v>
       </c>
       <c r="O4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819118</v>
       </c>
       <c r="P4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819117</v>
       </c>
     </row>
     <row r="5">
@@ -26479,7 +26479,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26488,7 +26488,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26500,13 +26500,13 @@
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26525,43 +26525,43 @@
         <v>141502.8948356007</v>
       </c>
       <c r="D6" t="n">
-        <v>141502.8948356007</v>
+        <v>141502.8948356006</v>
       </c>
       <c r="E6" t="n">
-        <v>-267844.3632616599</v>
+        <v>-267941.8223876322</v>
       </c>
       <c r="F6" t="n">
-        <v>257315.6732152361</v>
+        <v>257218.2140892642</v>
       </c>
       <c r="G6" t="n">
-        <v>257315.6732152363</v>
+        <v>257218.2140892641</v>
       </c>
       <c r="H6" t="n">
-        <v>257315.6732152363</v>
+        <v>257218.2140892642</v>
       </c>
       <c r="I6" t="n">
-        <v>257315.6732152363</v>
+        <v>257218.2140892637</v>
       </c>
       <c r="J6" t="n">
-        <v>80892.45402264327</v>
+        <v>80794.99489667117</v>
       </c>
       <c r="K6" t="n">
-        <v>205350.9865438712</v>
+        <v>205332.492805937</v>
       </c>
       <c r="L6" t="n">
         <v>237343.4332364512</v>
       </c>
       <c r="M6" t="n">
-        <v>112885.3248034809</v>
+        <v>112885.324803481</v>
       </c>
       <c r="N6" t="n">
-        <v>247686.3400373182</v>
+        <v>247686.3400373184</v>
       </c>
       <c r="O6" t="n">
-        <v>247686.3400373182</v>
+        <v>247686.3400373181</v>
       </c>
       <c r="P6" t="n">
-        <v>203523.7347344726</v>
+        <v>203523.7347344728</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855681</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170866</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26747,7 +26747,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26756,28 +26756,28 @@
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
     </row>
     <row r="4">
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855678</v>
       </c>
       <c r="L2" t="n">
-        <v>12.9286335010837</v>
+        <v>12.92863350108383</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855698</v>
+        <v>55.20325662855679</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855678</v>
       </c>
     </row>
     <row r="3">
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>27.71246734532718</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>41.35362898082633</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27543,10 +27543,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>39.3650927129283</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,10 +27591,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>218.3877772830995</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>236.8884507277487</v>
+        <v>155.0738622063897</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27783,19 +27783,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>11.51413342345762</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>17.99991998165294</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27853,10 +27853,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>138.2384675615766</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>52.55328306226772</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,19 +28020,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>64.39408129322585</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>46.83478528866331</v>
       </c>
     </row>
     <row r="11">
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855681</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855681</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855681</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855681</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855681</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855681</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855681</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855681</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855681</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855681</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855681</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855681</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855681</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855681</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855681</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855681</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855681</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855681</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855681</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855681</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855681</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855681</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855681</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855681</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30463,7 +30463,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,10 +32935,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,37 +32947,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,31 +33020,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33053,7 +33053,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,10 +33172,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,37 +33184,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,31 +33257,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33290,7 +33290,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,19 +34784,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35264,13 +35264,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,16 +35486,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.40751256795902</v>
+        <v>137.9476282330536</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980129</v>
@@ -35504,10 +35504,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,19 +35729,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>166.2502570412296</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504662</v>
@@ -35975,13 +35975,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36215,13 +36215,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187482</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412249</v>
+        <v>67.71102679412238</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584675</v>
+        <v>206.9056851584674</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084855</v>
+        <v>305.4174435084854</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075295</v>
+        <v>329.5130978075294</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341606</v>
+        <v>328.4801344341605</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.4406081491597</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403577</v>
+        <v>233.5868572403576</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043172</v>
+        <v>94.4289566004316</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>598.8335596281407</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,13 +37236,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.378021941509</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502032</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>588.096173671273</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,13 +37473,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>215.6591577951384</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,25 +37698,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L40" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095693</v>
       </c>
       <c r="M40" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086133</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
